--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.2.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v1.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,9 @@
     <sheet name="Ejecucion Sombra" sheetId="18" state="visible" r:id="rId19"/>
     <sheet name="Ejecucion Sombra Prerequisite" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="399">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -569,12 +572,6 @@
   </si>
   <si>
     <t xml:space="preserve">Availability KPI with Penalties. If the mimumum facings for required products are met then points are lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalizacion Delaware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se cuenta por lo menos con 1 frente de Delaware_Punch_NR_600_ml</t>
   </si>
   <si>
     <t xml:space="preserve">Penalizaciones/Bonificaciones</t>
@@ -1049,12 +1046,6 @@
     <t xml:space="preserve">Ciel_NR_600_ml:2,Ciel_Natural_NR_1_L:2,Ciel_NR_1.5_L:2</t>
   </si>
   <si>
-    <t xml:space="preserve">Availability KPI with Penalties. If the mimumum facings for required product is met then no change. If product not present then points are lost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delaware_Punch_NR_600_ml:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">If there are 4 or more coke doors then 1 of these bays needs 100% purity of Retornables</t>
   </si>
   <si>
@@ -1113,9 +1104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Puerta Retornabilidad,Bonificacion Plataforma Hidratacion,Ejecucion Sombra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Penalizacion Frentes Agua,Penalizacion Delaware</t>
   </si>
   <si>
     <t xml:space="preserve">Bonificaciones,Penalizaciones</t>
@@ -2124,15 +2112,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2175,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -2203,7 +2195,7 @@
       </c>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -2226,7 +2218,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="144" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -2251,7 +2243,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="144" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -2276,7 +2268,7 @@
       </c>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="144" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="144" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -2301,7 +2293,7 @@
       </c>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="100.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="100.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -2328,7 +2320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="262.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="262.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -2353,7 +2345,7 @@
       </c>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="220.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="220.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
@@ -2378,7 +2370,7 @@
       </c>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
@@ -2403,7 +2395,7 @@
       </c>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="124.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
@@ -2428,7 +2420,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -2457,7 +2449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -2480,7 +2472,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="409.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -2511,7 +2503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="262.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="262.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>12</v>
       </c>
@@ -2538,7 +2530,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="409.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>13</v>
       </c>
@@ -2565,7 +2557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="96.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="96.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>14</v>
       </c>
@@ -2590,7 +2582,7 @@
       </c>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="96.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="96.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>15</v>
       </c>
@@ -2617,7 +2609,7 @@
       </c>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="69" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>16</v>
       </c>
@@ -2642,7 +2634,7 @@
       </c>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>17</v>
       </c>
@@ -2667,7 +2659,7 @@
       </c>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="69" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>18</v>
       </c>
@@ -2692,7 +2684,7 @@
       </c>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>19</v>
       </c>
@@ -2717,7 +2709,7 @@
       </c>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="69" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>20</v>
       </c>
@@ -2742,7 +2734,7 @@
       </c>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>21</v>
       </c>
@@ -2767,7 +2759,7 @@
       </c>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>22</v>
       </c>
@@ -2792,7 +2784,7 @@
       </c>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
@@ -2815,7 +2807,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="165.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="165.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>23</v>
       </c>
@@ -2840,7 +2832,7 @@
       </c>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>24</v>
       </c>
@@ -2869,7 +2861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="151.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="151.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>25</v>
       </c>
@@ -2894,7 +2886,7 @@
       </c>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>26</v>
       </c>
@@ -2919,7 +2911,7 @@
       </c>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -2942,7 +2934,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="165.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="165.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>27</v>
       </c>
@@ -2967,7 +2959,7 @@
       </c>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="151.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="151.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>28</v>
       </c>
@@ -2994,7 +2986,7 @@
       </c>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>29</v>
       </c>
@@ -3023,7 +3015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="138" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>30</v>
       </c>
@@ -3050,7 +3042,7 @@
       </c>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>31</v>
       </c>
@@ -3077,7 +3069,7 @@
       </c>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
@@ -3102,7 +3094,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="165.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="165.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>32</v>
       </c>
@@ -3129,7 +3121,7 @@
       </c>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="151.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="151.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>33</v>
       </c>
@@ -3156,7 +3148,7 @@
       </c>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="151.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="151.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>34</v>
       </c>
@@ -3189,7 +3181,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="179.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="179.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>35</v>
       </c>
@@ -3220,7 +3212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="96.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="96.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>36</v>
       </c>
@@ -3253,7 +3245,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>37</v>
       </c>
@@ -3276,7 +3268,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="179.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="179.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>38</v>
       </c>
@@ -3307,7 +3299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>39</v>
       </c>
@@ -3330,7 +3322,7 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="55.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>40</v>
       </c>
@@ -3357,7 +3349,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" customFormat="false" ht="96.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="96.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>41</v>
       </c>
@@ -3384,7 +3376,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>42</v>
       </c>
@@ -3411,7 +3403,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="69" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>43</v>
       </c>
@@ -3438,7 +3430,7 @@
       <c r="J49" s="17"/>
       <c r="K49" s="17"/>
     </row>
-    <row r="50" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>44</v>
       </c>
@@ -3465,7 +3457,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>45</v>
       </c>
@@ -3488,7 +3480,7 @@
       <c r="J51" s="17"/>
       <c r="K51" s="17"/>
     </row>
-    <row r="52" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>46</v>
       </c>
@@ -3515,7 +3507,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>47</v>
       </c>
@@ -3542,7 +3534,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>48</v>
       </c>
@@ -3569,7 +3561,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" customFormat="false" ht="96.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="96.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>49</v>
       </c>
@@ -3596,7 +3588,7 @@
       <c r="J55" s="17"/>
       <c r="K55" s="17"/>
     </row>
-    <row r="56" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="124.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>50</v>
       </c>
@@ -3623,7 +3615,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="409.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>51</v>
       </c>
@@ -3648,7 +3640,7 @@
       <c r="J57" s="17"/>
       <c r="K57" s="17"/>
     </row>
-    <row r="58" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>52</v>
       </c>
@@ -3675,7 +3667,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>53</v>
       </c>
@@ -3702,7 +3694,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>54</v>
       </c>
@@ -3729,7 +3721,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" customFormat="false" ht="96.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="96.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>55</v>
       </c>
@@ -3756,7 +3748,7 @@
       <c r="J61" s="17"/>
       <c r="K61" s="17"/>
     </row>
-    <row r="62" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="124.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>56</v>
       </c>
@@ -3806,7 +3798,7 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="69" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>58</v>
       </c>
@@ -3833,7 +3825,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" customFormat="false" ht="96.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="96.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>59</v>
       </c>
@@ -3860,7 +3852,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>60</v>
       </c>
@@ -3887,7 +3879,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="82.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>61</v>
       </c>
@@ -3914,7 +3906,7 @@
       <c r="J67" s="17"/>
       <c r="K67" s="17"/>
     </row>
-    <row r="68" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="124.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>62</v>
       </c>
@@ -3941,7 +3933,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>63</v>
       </c>
@@ -3964,7 +3956,7 @@
       <c r="J69" s="27"/>
       <c r="K69" s="27"/>
     </row>
-    <row r="70" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>64</v>
       </c>
@@ -3987,7 +3979,7 @@
       <c r="J70" s="17"/>
       <c r="K70" s="17"/>
     </row>
-    <row r="71" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>65</v>
       </c>
@@ -4018,7 +4010,7 @@
       </c>
       <c r="K71" s="17"/>
     </row>
-    <row r="72" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>66</v>
       </c>
@@ -4049,7 +4041,7 @@
       </c>
       <c r="K72" s="17"/>
     </row>
-    <row r="73" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>67</v>
       </c>
@@ -4080,7 +4072,7 @@
       </c>
       <c r="K73" s="17"/>
     </row>
-    <row r="74" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>68</v>
       </c>
@@ -4111,7 +4103,7 @@
       </c>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="69" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>69</v>
       </c>
@@ -4144,7 +4136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="27.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>70</v>
       </c>
@@ -4167,7 +4159,7 @@
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
     </row>
-    <row r="77" customFormat="false" ht="179.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="179.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>71</v>
       </c>
@@ -4196,164 +4188,160 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" customFormat="false" ht="151.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="25" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="C78" s="26" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>177</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>136</v>
       </c>
       <c r="F78" s="22"/>
-      <c r="G78" s="19" t="s">
+      <c r="G78" s="5"/>
+      <c r="H78" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+    </row>
+    <row r="79" customFormat="false" ht="138" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H78" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-    </row>
-    <row r="79" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B79" s="31" t="s">
+      <c r="C79" s="25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C79" s="25" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>136</v>
       </c>
       <c r="F79" s="22"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="5"/>
+      <c r="G79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
     </row>
-    <row r="80" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="110.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C80" s="25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E80" s="22" t="s">
         <v>136</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>175</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
     </row>
-    <row r="81" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="409.6" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C81" s="25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F81" s="22"/>
+        <v>185</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>186</v>
+      </c>
       <c r="G81" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="I81" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
     </row>
-    <row r="82" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F82" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>190</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
     </row>
-    <row r="83" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>179</v>
+        <v>78</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C83" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>80</v>
+      <c r="D83" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
@@ -4364,84 +4352,67 @@
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
     </row>
-    <row r="84" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B84" s="4" t="s">
+    <row r="84" customFormat="false" ht="14.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="n">
+        <v>79</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D84" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="16" t="s">
+      <c r="E84" s="34"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-    </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="n">
-        <v>79</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D85" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="E85" s="34"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" customFormat="false" ht="41.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="4" t="n">
+      <c r="C85" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D85" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E86" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="4" t="s">
+      <c r="E85" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="I86" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J86" s="17" t="s">
+      <c r="J85" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K86" s="17"/>
-    </row>
+      <c r="K85" s="17"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:K85">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Hidratacion"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4449,6 +4420,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4576,7 +4548,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E1" s="75" t="s">
         <v>4</v>
@@ -4599,10 +4571,10 @@
         <v>116</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,10 +4591,10 @@
         <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4642,7 +4614,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4634,7 @@
         <v>151</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,13 +4648,13 @@
         <v>117</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,13 +4668,13 @@
         <v>117</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,13 +4688,13 @@
         <v>117</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,13 +4708,13 @@
         <v>117</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,13 +4728,13 @@
         <v>117</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,13 +4748,13 @@
         <v>117</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,7 +4774,7 @@
         <v>151</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,7 +4794,7 @@
         <v>151</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4872,16 +4844,16 @@
         <v>7</v>
       </c>
       <c r="G1" s="80" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H1" s="81" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -4907,16 +4879,16 @@
         <v>100</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I2" s="82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J2" s="82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="172.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,20 +4908,20 @@
         <v>108</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G3" s="82"/>
       <c r="H3" s="84" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I3" s="82" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4968,10 +4940,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4999,25 +4971,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="86" t="s">
         <v>327</v>
       </c>
-      <c r="H1" s="85" t="s">
+      <c r="J1" s="86" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="K1" s="86" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="L1" s="86" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="86" t="s">
+      <c r="M1" s="86" t="s">
         <v>331</v>
-      </c>
-      <c r="L1" s="86" t="s">
-        <v>332</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="220.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,7 +5003,7 @@
         <v>174</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>175</v>
@@ -5040,29 +5012,29 @@
         <v>136</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
       <c r="K2" s="49" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L2" s="49"/>
       <c r="M2" s="49"/>
     </row>
-    <row r="3" customFormat="false" ht="193.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>178</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>175</v>
@@ -5070,30 +5042,32 @@
       <c r="F3" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49" t="s">
-        <v>337</v>
-      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" s="49"/>
       <c r="L3" s="49"/>
       <c r="M3" s="49"/>
     </row>
-    <row r="4" customFormat="false" ht="138" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>338</v>
+        <v>184</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>175</v>
@@ -5102,50 +5076,18 @@
         <v>136</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5" t="n">
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="49" t="n">
         <v>100</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-    </row>
-    <row r="5" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="M5" s="49" t="n">
-        <v>100</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5164,8 +5106,8 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5187,31 +5129,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -5220,7 +5162,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="82.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5241,13 +5183,13 @@
         <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -5276,13 +5218,13 @@
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -5310,13 +5252,13 @@
         <v>14</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5344,16 +5286,16 @@
         <v>14</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="M5" s="9" t="n">
         <v>1</v>
@@ -5384,16 +5326,16 @@
         <v>14</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>352</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>1</v>
@@ -5424,15 +5366,15 @@
         <v>14</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="16"/>
       <c r="K7" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -5458,15 +5400,15 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -5479,13 +5421,13 @@
         <v>77</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>80</v>
@@ -5494,15 +5436,15 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -5510,12 +5452,12 @@
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>-5.5</v>
@@ -5530,15 +5472,15 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>358</v>
+        <v>173</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -5557,7 +5499,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>80</v>
@@ -5566,15 +5508,15 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -5600,15 +5542,15 @@
         <v>14</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J12" s="76"/>
       <c r="K12" s="76" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L12" s="27"/>
       <c r="M12" s="27"/>
@@ -5634,15 +5576,15 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="76" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
@@ -5668,13 +5610,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="4"/>
       <c r="J14" s="76"/>
       <c r="K14" s="76" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -5698,15 +5640,15 @@
         <v>14</v>
       </c>
       <c r="G15" s="92" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H15" s="92"/>
       <c r="I15" s="92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J15" s="92"/>
       <c r="K15" s="91" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L15" s="91"/>
       <c r="M15" s="91"/>
@@ -5755,34 +5697,34 @@
         <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>213</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>215</v>
       </c>
       <c r="O1" s="36" t="s">
         <v>9</v>
@@ -5805,30 +5747,30 @@
         <v>105</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H2" s="95" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I2" s="95"/>
       <c r="J2" s="96"/>
       <c r="K2" s="95" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O2" s="97" t="s">
         <v>41</v>
@@ -5862,9 +5804,9 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="7" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="11" min="7" style="0" width="36.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -5879,34 +5821,34 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -5932,28 +5874,28 @@
         <v>113</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>370</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="G2" s="98" t="s">
-        <v>375</v>
-      </c>
-      <c r="H2" s="98" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="99" t="s">
-        <v>377</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>379</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>21</v>
@@ -6009,10 +5951,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -6030,19 +5972,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6083,7 +6025,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="101" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E1" s="100"/>
       <c r="F1" s="102"/>
@@ -6097,13 +6039,13 @@
         <v>76</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -6279,25 +6221,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="101" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="102" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" s="100" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="102" t="s">
         <v>386</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>387</v>
-      </c>
-      <c r="E1" s="102" t="s">
-        <v>388</v>
-      </c>
-      <c r="F1" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" s="102" t="s">
-        <v>389</v>
-      </c>
-      <c r="H1" s="100" t="s">
-        <v>390</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6305,25 +6247,25 @@
         <v>76</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E2" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G2" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="104" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I2" s="32" t="n">
         <v>1</v>
@@ -6334,25 +6276,25 @@
         <v>76</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E3" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G3" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I3" s="32" t="n">
         <v>1</v>
@@ -6363,25 +6305,25 @@
         <v>76</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E4" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G4" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I4" s="32" t="n">
         <v>1</v>
@@ -6392,25 +6334,25 @@
         <v>76</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E5" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G5" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I5" s="32" t="n">
         <v>1</v>
@@ -6421,25 +6363,25 @@
         <v>76</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E6" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G6" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="104" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I6" s="32" t="n">
         <v>1</v>
@@ -6450,25 +6392,25 @@
         <v>76</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E7" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G7" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I7" s="32" t="n">
         <v>1</v>
@@ -6479,25 +6421,25 @@
         <v>76</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E8" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G8" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I8" s="32" t="n">
         <v>1</v>
@@ -6508,25 +6450,25 @@
         <v>76</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E9" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G9" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H9" s="104" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I9" s="32" t="n">
         <v>1</v>
@@ -6537,25 +6479,25 @@
         <v>76</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E10" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G10" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="104" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I10" s="32" t="n">
         <v>1</v>
@@ -6566,25 +6508,25 @@
         <v>76</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G11" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I11" s="32" t="n">
         <v>1</v>
@@ -6595,25 +6537,25 @@
         <v>76</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E12" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G12" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H12" s="32" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I12" s="32" t="n">
         <v>1</v>
@@ -6624,25 +6566,25 @@
         <v>76</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E13" s="32" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G13" s="32" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I13" s="32" t="n">
         <v>1</v>
@@ -6695,31 +6637,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>192</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>194</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="M1" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="N1" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="O1" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>199</v>
       </c>
       <c r="P1" s="36" t="s">
         <v>9</v>
@@ -6739,40 +6681,40 @@
         <v>47</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I2" s="40" t="s">
         <v>202</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="J2" s="40" t="s">
         <v>80</v>
       </c>
       <c r="K2" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="M2" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="N2" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="O2" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>209</v>
       </c>
       <c r="P2" s="41" t="s">
         <v>41</v>
@@ -6792,40 +6734,40 @@
         <v>47</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>202</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>204</v>
       </c>
       <c r="J3" s="40" t="s">
         <v>80</v>
       </c>
       <c r="K3" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="N3" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="O3" s="40" t="s">
         <v>207</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>209</v>
       </c>
       <c r="P3" s="41" t="s">
         <v>41</v>
@@ -6875,7 +6817,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>5</v>
@@ -6884,37 +6826,37 @@
         <v>8</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="N1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>213</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>215</v>
       </c>
       <c r="S1" s="36" t="s">
         <v>9</v>
@@ -6935,33 +6877,33 @@
         <v>27</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="44" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I2" s="45" t="s">
         <v>80</v>
       </c>
       <c r="J2" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K2" s="44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L2" s="44"/>
       <c r="M2" s="44"/>
       <c r="N2" s="44"/>
       <c r="O2" s="44"/>
       <c r="P2" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R2" s="47" t="n">
         <v>100</v>
@@ -6979,39 +6921,39 @@
         <v>36</v>
       </c>
       <c r="C3" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>220</v>
       </c>
       <c r="F3" s="43"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I3" s="45" t="s">
         <v>80</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L3" s="45"/>
       <c r="M3" s="43"/>
       <c r="N3" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R3" s="47"/>
       <c r="S3" s="46" t="s">
@@ -7029,39 +6971,39 @@
         <v>39</v>
       </c>
       <c r="C4" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>218</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>220</v>
       </c>
       <c r="F4" s="43"/>
       <c r="G4" s="45"/>
       <c r="H4" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I4" s="45" t="s">
         <v>80</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L4" s="45"/>
       <c r="M4" s="43"/>
       <c r="N4" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O4" s="43"/>
       <c r="P4" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="46" t="s">
@@ -7080,49 +7022,49 @@
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I5" s="45" t="s">
         <v>80</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M5" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N5" s="45"/>
       <c r="O5" s="45"/>
       <c r="P5" s="46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R5" s="49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="S5" s="46" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="U5" s="41"/>
     </row>
@@ -7135,45 +7077,45 @@
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H6" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I6" s="45" t="s">
         <v>80</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K6" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L6" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N6" s="45"/>
       <c r="O6" s="50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P6" s="46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R6" s="49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S6" s="46" t="s">
         <v>41</v>
@@ -7193,36 +7135,36 @@
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>80</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L7" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M7" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N7" s="45"/>
       <c r="O7" s="45"/>
       <c r="P7" s="46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R7" s="49" t="n">
         <v>23</v>
@@ -7245,41 +7187,41 @@
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H8" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>80</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K8" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L8" s="44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M8" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N8" s="45"/>
       <c r="O8" s="50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P8" s="46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R8" s="49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="S8" s="46" t="s">
         <v>41</v>
@@ -7333,7 +7275,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H1" s="35" t="s">
         <v>5</v>
@@ -7342,25 +7284,25 @@
         <v>8</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N1" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="36" t="s">
         <v>9</v>
@@ -7380,25 +7322,25 @@
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="H2" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="52" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>240</v>
-      </c>
       <c r="J2" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
@@ -7457,7 +7399,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G1" s="36" t="s">
         <v>9</v>
@@ -7466,7 +7408,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,7 +7426,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>29</v>
@@ -7507,7 +7449,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G3" s="41" t="s">
         <v>21</v>
@@ -7553,7 +7495,7 @@
         <v>78</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>21</v>
@@ -7599,7 +7541,7 @@
         <v>78</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>21</v>
@@ -7645,7 +7587,7 @@
         <v>78</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>21</v>
@@ -7703,7 +7645,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -7712,34 +7654,34 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
@@ -7748,7 +7690,7 @@
         <v>10</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="110.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,40 +7701,40 @@
         <v>56</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>58</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J2" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L2" s="38"/>
       <c r="M2" s="38"/>
       <c r="N2" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="41"/>
       <c r="R2" s="58" t="s">
@@ -7815,34 +7757,34 @@
         <v>58</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F3" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>255</v>
-      </c>
       <c r="K3" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O3" s="41"/>
       <c r="P3" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q3" s="41"/>
       <c r="R3" s="58" t="s">
@@ -7865,34 +7807,34 @@
         <v>58</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>254</v>
-      </c>
       <c r="J4" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O4" s="41"/>
       <c r="P4" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="58" t="s">
@@ -7915,34 +7857,34 @@
         <v>58</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O5" s="41"/>
       <c r="P5" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="41"/>
       <c r="R5" s="58" t="s">
@@ -7965,34 +7907,34 @@
         <v>58</v>
       </c>
       <c r="E6" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>253</v>
-      </c>
-      <c r="G6" s="38" t="s">
+      <c r="J6" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>258</v>
-      </c>
       <c r="K6" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="58" t="s">
@@ -8015,34 +7957,34 @@
         <v>58</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>258</v>
-      </c>
       <c r="K7" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="41"/>
       <c r="R7" s="58" t="s">
@@ -8065,32 +8007,32 @@
         <v>58</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I8" s="59"/>
       <c r="J8" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="29"/>
       <c r="N8" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O8" s="41"/>
       <c r="P8" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="41"/>
       <c r="R8" s="58" t="s">
@@ -8107,38 +8049,38 @@
         <v>75</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>73</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I9" s="41"/>
       <c r="J9" s="58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O9" s="41"/>
       <c r="P9" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="41"/>
       <c r="R9" s="58" t="s">
@@ -8162,27 +8104,27 @@
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>73</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
       <c r="M10" s="58"/>
       <c r="N10" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O10" s="60"/>
       <c r="P10" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="58"/>
       <c r="R10" s="58" t="s">
@@ -8206,27 +8148,27 @@
       </c>
       <c r="E11" s="58"/>
       <c r="F11" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K11" s="58"/>
       <c r="L11" s="58"/>
       <c r="M11" s="58"/>
       <c r="N11" s="57" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O11" s="60"/>
       <c r="P11" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="58"/>
       <c r="R11" s="58" t="s">
@@ -8262,16 +8204,16 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.81781376518219"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.9554655870445"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.5991902834008"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.63967611336032"/>
@@ -8292,7 +8234,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
@@ -8304,25 +8246,25 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>9</v>
@@ -8345,19 +8287,19 @@
         <v>160</v>
       </c>
       <c r="E2" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>270</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>272</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>159</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J2" s="28" t="n">
         <v>0.4</v>
@@ -8366,10 +8308,10 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P2" s="49" t="s">
         <v>21</v>
@@ -8392,19 +8334,19 @@
         <v>164</v>
       </c>
       <c r="E3" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>270</v>
-      </c>
-      <c r="F3" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>272</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>159</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J3" s="28" t="n">
         <v>0.4</v>
@@ -8413,10 +8355,10 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P3" s="49" t="s">
         <v>21</v>
@@ -8439,19 +8381,19 @@
         <v>166</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H4" s="28" t="s">
         <v>159</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J4" s="28" t="n">
         <v>0.1</v>
@@ -8460,10 +8402,10 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P4" s="49" t="s">
         <v>21</v>
@@ -8486,19 +8428,19 @@
         <v>168</v>
       </c>
       <c r="E5" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="62" t="s">
         <v>275</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>271</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>277</v>
       </c>
       <c r="H5" s="28" t="s">
         <v>136</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J5" s="28" t="n">
         <v>0.1</v>
@@ -8507,10 +8449,10 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
       <c r="N5" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P5" s="49" t="s">
         <v>21</v>
@@ -8533,35 +8475,35 @@
         <v>170</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H6" s="29" t="s">
         <v>159</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J6" s="65"/>
       <c r="K6" s="66" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L6" s="66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N6" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="P6" s="41" t="s">
         <v>21</v>
@@ -8611,7 +8553,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -8620,31 +8562,31 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="244.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8659,27 +8601,27 @@
         <v>19</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="68" t="s">
         <v>287</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="H2" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="I2" s="68" t="s">
         <v>289</v>
-      </c>
-      <c r="H2" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" s="68" t="s">
-        <v>291</v>
       </c>
       <c r="J2" s="68"/>
       <c r="K2" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L2" s="53"/>
       <c r="M2" s="53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N2" s="53"/>
       <c r="O2" s="53" t="s">
@@ -8699,27 +8641,27 @@
         <v>19</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I3" s="68" t="n">
         <v>2</v>
       </c>
       <c r="J3" s="29"/>
       <c r="K3" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L3" s="53"/>
       <c r="M3" s="53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N3" s="53"/>
       <c r="O3" s="53" t="s">
@@ -8739,27 +8681,27 @@
         <v>19</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G4" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>294</v>
+      </c>
+      <c r="I4" s="69" t="s">
         <v>295</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>296</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>297</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L4" s="53"/>
       <c r="M4" s="53" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N4" s="53"/>
       <c r="O4" s="53" t="s">
@@ -8805,22 +8747,22 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8839,13 +8781,13 @@
       </c>
       <c r="F2" s="61"/>
       <c r="G2" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H2" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8863,16 +8805,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H3" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8890,16 +8832,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H4" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8919,16 +8861,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F5" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="73" t="s">
         <v>306</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8947,13 +8889,13 @@
       </c>
       <c r="F6" s="61"/>
       <c r="G6" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H6" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8972,13 +8914,13 @@
       </c>
       <c r="F7" s="61"/>
       <c r="G7" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H7" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8996,16 +8938,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H8" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9025,16 +8967,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F9" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="H9" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="I9" s="73" t="s">
         <v>306</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="I9" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9052,16 +8994,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H10" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9080,13 +9022,13 @@
       </c>
       <c r="F11" s="61"/>
       <c r="G11" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H11" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9105,13 +9047,13 @@
       </c>
       <c r="F12" s="61"/>
       <c r="G12" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H12" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9129,16 +9071,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F13" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H13" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9158,16 +9100,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F14" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" s="73" t="s">
         <v>306</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9185,16 +9127,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H15" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9213,13 +9155,13 @@
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H16" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="115.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9238,13 +9180,13 @@
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H17" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9262,16 +9204,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H18" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,16 +9231,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H19" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,16 +9260,16 @@
         <v>0.166666666666667</v>
       </c>
       <c r="F20" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="73" t="s">
         <v>306</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="124.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9346,13 +9288,13 @@
       </c>
       <c r="F21" s="61"/>
       <c r="G21" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H21" s="41" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
